--- a/target/test-classes/com/stadiumgoods/TestCases/TestData.xlsx
+++ b/target/test-classes/com/stadiumgoods/TestCases/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>testone@gmail.com</t>
   </si>
@@ -52,12 +52,16 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -443,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,6 +481,9 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
